--- a/biology/Zoologie/Aegothelidae/Aegothelidae.xlsx
+++ b/biology/Zoologie/Aegothelidae/Aegothelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aegothelidae (ou ægothelidés en français) sont une famille d'oiseaux constituée du seul genre Aegotheles  et de 9 espèces existantes d'égothèles.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les égothèles sont des oiseaux nocturnes de taille petite à moyenne (18 à 30 cm), au bec large mais plutôt faible. Ils ont de longues pattes et adoptent une attitude dressée quand ils se perchent.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On les trouve en Australie, en Nouvelle-Guinée et en Nouvelle-Calédonie, où ils fréquentent principalement les forêts et les zones arborées, une espèce s'aventurant dans les lieux garnis de broussailles éparses et sèches.
 </t>
@@ -573,11 +589,13 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a par le passé été placée dans les ordres des Caprimulgiformes ou des Strigiformes dans la classification de Sibley.
-Toutefois, certaines études morphologiques comparatives ont montré qu'ils étaient plus proches des Apodiformes avec qui ils partagent un ancêtre commun plus récent[1].
-Le Congrès ornithologique international le place actuellement dans son propre ordre, les Aegotheliformes ; ce traitement est notamment soutenu par une étude de Chen et al. datant de 2019[2], ainsi que d'autres études plus anciennes[3]. L'étude de Chen suggère que le taxon pourrait être vieux de plus de 23 millions d'années, bien que cela reste à confirmer.
+Toutefois, certaines études morphologiques comparatives ont montré qu'ils étaient plus proches des Apodiformes avec qui ils partagent un ancêtre commun plus récent.
+Le Congrès ornithologique international le place actuellement dans son propre ordre, les Aegotheliformes ; ce traitement est notamment soutenu par une étude de Chen et al. datant de 2019, ainsi que d'autres études plus anciennes. L'étude de Chen suggère que le taxon pourrait être vieux de plus de 23 millions d'années, bien que cela reste à confirmer.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D'après la classification de référence (version 13.1, 2023) du Congrès ornithologique international (ordre phylogénique)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 13.1, 2023) du Congrès ornithologique international (ordre phylogénique) :
 Aegotheles insignis – Grand Égothèle
 Aegotheles tatei – Égothèle de Tate
 Aegotheles crinifrons – Égothèle des Moluques
